--- a/heliosphere仕様書ver2.xlsx
+++ b/heliosphere仕様書ver2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="状態遷移図" sheetId="1" r:id="rId1"/>
@@ -885,106 +885,6 @@
   <dxfs count="47">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1679,6 +1579,106 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color theme="1" tint="0.24994659260841701"/>
@@ -2188,8 +2188,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2808275" y="1693690"/>
-          <a:ext cx="2446724" cy="688070"/>
+          <a:off x="2735703" y="1584833"/>
+          <a:ext cx="2392296" cy="633641"/>
           <a:chOff x="2572871" y="1652869"/>
           <a:chExt cx="2463053" cy="667659"/>
         </a:xfrm>
@@ -2918,8 +2918,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6286500" y="2476500"/>
-          <a:ext cx="790575" cy="238476"/>
+          <a:off x="6736443" y="2363107"/>
+          <a:ext cx="766989" cy="227137"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3034,8 +3034,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8439713" y="1589314"/>
-          <a:ext cx="442793" cy="2159534"/>
+          <a:off x="8221998" y="1480457"/>
+          <a:ext cx="424651" cy="1996248"/>
           <a:chOff x="7419975" y="1495425"/>
           <a:chExt cx="448236" cy="2098301"/>
         </a:xfrm>
@@ -3150,8 +3150,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9124793" y="1975115"/>
-          <a:ext cx="2502672" cy="864773"/>
+          <a:off x="8888936" y="1829972"/>
+          <a:ext cx="2430101" cy="810345"/>
           <a:chOff x="2572871" y="1652869"/>
           <a:chExt cx="2463053" cy="667659"/>
         </a:xfrm>
@@ -3588,8 +3588,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11893047" y="1587633"/>
-          <a:ext cx="443033" cy="2159534"/>
+          <a:off x="11584619" y="1478776"/>
+          <a:ext cx="424889" cy="1996248"/>
           <a:chOff x="10894119" y="1530003"/>
           <a:chExt cx="446234" cy="2073088"/>
         </a:xfrm>
@@ -3813,8 +3813,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12666654" y="2303529"/>
-          <a:ext cx="2502672" cy="786334"/>
+          <a:off x="12340082" y="2140243"/>
+          <a:ext cx="2430101" cy="731906"/>
           <a:chOff x="2594815" y="1715518"/>
           <a:chExt cx="2463053" cy="605010"/>
         </a:xfrm>
@@ -5018,8 +5018,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5928632" y="5200650"/>
-          <a:ext cx="648981" cy="2430236"/>
+          <a:off x="5783489" y="4819650"/>
+          <a:ext cx="630839" cy="2248807"/>
           <a:chOff x="5219700" y="5534025"/>
           <a:chExt cx="654424" cy="2362200"/>
         </a:xfrm>
@@ -6255,8 +6255,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1436914" y="7307998"/>
-          <a:ext cx="2438321" cy="688069"/>
+          <a:off x="1400629" y="6781855"/>
+          <a:ext cx="2383891" cy="633641"/>
           <a:chOff x="2572871" y="1652869"/>
           <a:chExt cx="2463053" cy="667659"/>
         </a:xfrm>
@@ -6869,8 +6869,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2688771" y="8866732"/>
-          <a:ext cx="2432878" cy="688069"/>
+          <a:off x="2634343" y="8213589"/>
+          <a:ext cx="2360306" cy="633641"/>
           <a:chOff x="2572871" y="1652869"/>
           <a:chExt cx="2463053" cy="667659"/>
         </a:xfrm>
@@ -7194,8 +7194,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1436914" y="10253299"/>
-          <a:ext cx="2438321" cy="688070"/>
+          <a:off x="1400629" y="9509442"/>
+          <a:ext cx="2383891" cy="633641"/>
           <a:chOff x="2572871" y="1652869"/>
           <a:chExt cx="2463053" cy="667659"/>
         </a:xfrm>
@@ -8352,8 +8352,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8706652" y="8300593"/>
-          <a:ext cx="2435118" cy="688069"/>
+          <a:off x="8488937" y="7701879"/>
+          <a:ext cx="2362548" cy="633640"/>
           <a:chOff x="2572871" y="1652869"/>
           <a:chExt cx="2463053" cy="667659"/>
         </a:xfrm>
@@ -10213,8 +10213,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="23026586" y="1757648"/>
-          <a:ext cx="4082547" cy="1529096"/>
+          <a:off x="22427871" y="1630648"/>
+          <a:ext cx="3973690" cy="1420239"/>
           <a:chOff x="2572871" y="1652869"/>
           <a:chExt cx="2463053" cy="667659"/>
         </a:xfrm>
@@ -10793,8 +10793,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="24634866" y="5971001"/>
-          <a:ext cx="2438320" cy="688070"/>
+          <a:off x="23981723" y="5535572"/>
+          <a:ext cx="2383891" cy="633642"/>
           <a:chOff x="2572871" y="1652869"/>
           <a:chExt cx="2463053" cy="667659"/>
         </a:xfrm>
@@ -10961,8 +10961,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="24666038" y="6650370"/>
-          <a:ext cx="2428795" cy="688071"/>
+          <a:off x="24012895" y="6160513"/>
+          <a:ext cx="2374366" cy="645435"/>
           <a:chOff x="2572871" y="1652869"/>
           <a:chExt cx="2463053" cy="667659"/>
         </a:xfrm>
@@ -12509,8 +12509,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17136340" y="8483289"/>
-          <a:ext cx="3805053" cy="1195104"/>
+          <a:off x="16682768" y="7866432"/>
+          <a:ext cx="3714340" cy="1104390"/>
           <a:chOff x="2572871" y="1652869"/>
           <a:chExt cx="2463053" cy="667659"/>
         </a:xfrm>
@@ -12845,8 +12845,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="23833775" y="9098332"/>
-          <a:ext cx="2945081" cy="798141"/>
+          <a:off x="23198775" y="8427046"/>
+          <a:ext cx="2872509" cy="743713"/>
           <a:chOff x="2572871" y="1652869"/>
           <a:chExt cx="2463053" cy="667659"/>
         </a:xfrm>
@@ -13920,8 +13920,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16881543" y="6205047"/>
-          <a:ext cx="3216213" cy="901963"/>
+          <a:off x="16446115" y="5751476"/>
+          <a:ext cx="3125498" cy="829391"/>
           <a:chOff x="2572871" y="1652869"/>
           <a:chExt cx="2463053" cy="667659"/>
         </a:xfrm>
@@ -14436,8 +14436,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19573102" y="2141369"/>
-          <a:ext cx="3001149" cy="974668"/>
+          <a:off x="19065102" y="1996226"/>
+          <a:ext cx="2910434" cy="902097"/>
           <a:chOff x="2572871" y="1652869"/>
           <a:chExt cx="2463053" cy="667659"/>
         </a:xfrm>
@@ -14872,8 +14872,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17439522" y="3695304"/>
-          <a:ext cx="3001149" cy="974668"/>
+          <a:off x="16985950" y="3423161"/>
+          <a:ext cx="2910436" cy="902097"/>
           <a:chOff x="2572871" y="1652869"/>
           <a:chExt cx="2463053" cy="667659"/>
         </a:xfrm>
@@ -18606,168 +18606,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>598715</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>119994</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>408218</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>68036</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4000501" y="3576208"/>
-          <a:ext cx="4572003" cy="1662542"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・フレンド・エネミー共に基本形は停止している</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・彗星の尾との当たり判定をもち、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>true</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>なら</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>破壊</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・ステージによっては複数存在したり、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>彗星と同じ仕様で任意の方向・速度でステージ上を公転する</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>公転軌道に対して垂直に移動する</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ものも存在</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>81634</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -19061,7 +18899,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>519786</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19070,8 +18908,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9748149" y="3162299"/>
-          <a:ext cx="4378780" cy="1028701"/>
+          <a:off x="9494149" y="3080656"/>
+          <a:ext cx="4269923" cy="1064987"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -19150,13 +18988,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>525227</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>130628</xdr:rowOff>
+      <xdr:rowOff>130627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>141507</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>179615</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19165,8 +19003,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9369870" y="4811485"/>
-          <a:ext cx="4378780" cy="1028701"/>
+          <a:off x="9134013" y="4602841"/>
+          <a:ext cx="4251780" cy="1057729"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -19403,7 +19241,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>255333</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>77660</xdr:rowOff>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19412,8 +19250,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1455962" y="2054691"/>
-          <a:ext cx="2881514" cy="989326"/>
+          <a:off x="1419677" y="2018405"/>
+          <a:ext cx="2808942" cy="1029595"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19561,13 +19399,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>517077</xdr:colOff>
+      <xdr:colOff>489863</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>449042</xdr:colOff>
+      <xdr:colOff>421828</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>13608</xdr:rowOff>
     </xdr:to>
@@ -19578,8 +19416,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9361720" y="1006929"/>
-          <a:ext cx="1973036" cy="1973036"/>
+          <a:off x="9098649" y="988786"/>
+          <a:ext cx="1918608" cy="1909536"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -19671,13 +19509,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>149682</xdr:colOff>
+      <xdr:colOff>122468</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>6804</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>449042</xdr:colOff>
+      <xdr:colOff>421828</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>13606</xdr:rowOff>
     </xdr:to>
@@ -19690,8 +19528,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10355039" y="1993447"/>
-          <a:ext cx="979717" cy="6802"/>
+          <a:off x="10055682" y="1957161"/>
+          <a:ext cx="961575" cy="6802"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -19723,13 +19561,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>163289</xdr:colOff>
+      <xdr:colOff>136075</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>44016</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>160098</xdr:colOff>
+      <xdr:colOff>132884</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>217714</xdr:rowOff>
     </xdr:to>
@@ -19742,8 +19580,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10368646" y="1295873"/>
-          <a:ext cx="677166" cy="663555"/>
+          <a:off x="10069289" y="1286802"/>
+          <a:ext cx="659024" cy="627269"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -20228,11 +20066,173 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>598715</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>119993</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>408218</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>172356</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3909786" y="3458279"/>
+          <a:ext cx="4445003" cy="1639863"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・フレンド・エネミー共に基本形は停止している</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・彗星の尾との当たり判定をもち、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>true</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>なら</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>破壊</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・ステージによっては複数存在したり、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>彗星と同じ仕様で任意の方向・速度でステージ上を公転する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>公転軌道に対して垂直に移動する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ものも存在</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル8101516" displayName="テーブル8101516" ref="B6:I19" headerRowDxfId="43" dataDxfId="41" totalsRowDxfId="39" headerRowBorderDxfId="42" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル8101516" displayName="テーブル8101516" ref="B6:I19" headerRowDxfId="33" dataDxfId="31" totalsRowDxfId="29" headerRowBorderDxfId="32" tableBorderDxfId="30">
   <autoFilter ref="B6:I19">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -20244,86 +20244,86 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="作業内容" totalsRowLabel="集計" dataDxfId="38"/>
-    <tableColumn id="2" name="発注(依頼)者" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="3" name="担当(対象)者" dataDxfId="35"/>
-    <tableColumn id="4" name="列1" dataDxfId="34"/>
-    <tableColumn id="5" name="優先度" dataDxfId="33"/>
-    <tableColumn id="13" name="詳細" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="6" name="担当" dataDxfId="30"/>
-    <tableColumn id="10" name="作成完了" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="1" name="作業内容" totalsRowLabel="集計" dataDxfId="28"/>
+    <tableColumn id="2" name="発注(依頼)者" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="3" name="担当(対象)者" dataDxfId="25"/>
+    <tableColumn id="4" name="列1" dataDxfId="24"/>
+    <tableColumn id="5" name="優先度" dataDxfId="23"/>
+    <tableColumn id="13" name="詳細" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="6" name="担当" dataDxfId="20"/>
+    <tableColumn id="10" name="作成完了" dataDxfId="19" totalsRowDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="Party Planner 2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル2" displayName="テーブル2" ref="L6:L8" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル2" displayName="テーブル2" ref="L6:L8" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="L6:L8">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" name="印" dataDxfId="25"/>
+    <tableColumn id="1" name="印" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="テーブル6" displayName="テーブル6" ref="M6:M10" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="テーブル6" displayName="テーブル6" ref="M6:M10" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="M6:M10">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" name="優先度" dataDxfId="22"/>
+    <tableColumn id="1" name="優先度" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="テーブル7" displayName="テーブル7" ref="N6:N11" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="テーブル7" displayName="テーブル7" ref="N6:N11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="N6:N11">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" name="ラフ" dataDxfId="19"/>
+    <tableColumn id="1" name="ラフ" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="テーブル8" displayName="テーブル8" ref="O6:O11" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="テーブル8" displayName="テーブル8" ref="O6:O11" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="O6:O11">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" name="ステージ" dataDxfId="16"/>
+    <tableColumn id="1" name="ステージ" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="テーブル11" displayName="テーブル11" ref="P6:P9" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="テーブル11" displayName="テーブル11" ref="P6:P9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="P6:P9">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" name="担当" dataDxfId="13"/>
+    <tableColumn id="1" name="担当" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="テーブル12" displayName="テーブル12" ref="Q6:Q11" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="テーブル12" displayName="テーブル12" ref="Q6:Q11" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="Q6:Q11">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" name="フレームレート" dataDxfId="10"/>
+    <tableColumn id="1" name="フレームレート" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -20618,16 +20618,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP46"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -20671,7 +20671,7 @@
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -20715,7 +20715,7 @@
       <c r="AO3" s="1"/>
       <c r="AP3" s="1"/>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -20759,7 +20759,7 @@
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -20803,7 +20803,7 @@
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -20847,7 +20847,7 @@
       <c r="AO6" s="1"/>
       <c r="AP6" s="1"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -20891,7 +20891,7 @@
       <c r="AO7" s="1"/>
       <c r="AP7" s="1"/>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -20935,7 +20935,7 @@
       <c r="AO8" s="1"/>
       <c r="AP8" s="1"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -20979,7 +20979,7 @@
       <c r="AO9" s="1"/>
       <c r="AP9" s="1"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -21023,7 +21023,7 @@
       <c r="AO10" s="1"/>
       <c r="AP10" s="1"/>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -21067,7 +21067,7 @@
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -21111,7 +21111,7 @@
       <c r="AO12" s="1"/>
       <c r="AP12" s="1"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -21155,7 +21155,7 @@
       <c r="AO13" s="1"/>
       <c r="AP13" s="1"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -21199,7 +21199,7 @@
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -21243,7 +21243,7 @@
       <c r="AO15" s="1"/>
       <c r="AP15" s="1"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -21287,7 +21287,7 @@
       <c r="AO16" s="1"/>
       <c r="AP16" s="1"/>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -21331,7 +21331,7 @@
       <c r="AO17" s="1"/>
       <c r="AP17" s="1"/>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -21375,7 +21375,7 @@
       <c r="AO18" s="1"/>
       <c r="AP18" s="1"/>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -21419,7 +21419,7 @@
       <c r="AO19" s="1"/>
       <c r="AP19" s="1"/>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -21463,7 +21463,7 @@
       <c r="AO20" s="1"/>
       <c r="AP20" s="1"/>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -21507,7 +21507,7 @@
       <c r="AO21" s="1"/>
       <c r="AP21" s="1"/>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -21551,7 +21551,7 @@
       <c r="AO22" s="1"/>
       <c r="AP22" s="1"/>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -21595,7 +21595,7 @@
       <c r="AO23" s="1"/>
       <c r="AP23" s="1"/>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -21639,7 +21639,7 @@
       <c r="AO24" s="1"/>
       <c r="AP24" s="1"/>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -21683,7 +21683,7 @@
       <c r="AO25" s="1"/>
       <c r="AP25" s="1"/>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -21727,7 +21727,7 @@
       <c r="AO26" s="1"/>
       <c r="AP26" s="1"/>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -21771,7 +21771,7 @@
       <c r="AO27" s="1"/>
       <c r="AP27" s="1"/>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -21815,7 +21815,7 @@
       <c r="AO28" s="1"/>
       <c r="AP28" s="1"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -21859,7 +21859,7 @@
       <c r="AO29" s="1"/>
       <c r="AP29" s="1"/>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -21903,7 +21903,7 @@
       <c r="AO30" s="1"/>
       <c r="AP30" s="1"/>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -21947,7 +21947,7 @@
       <c r="AO31" s="1"/>
       <c r="AP31" s="1"/>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -21991,7 +21991,7 @@
       <c r="AO32" s="1"/>
       <c r="AP32" s="1"/>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -22035,7 +22035,7 @@
       <c r="AO33" s="1"/>
       <c r="AP33" s="1"/>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -22079,7 +22079,7 @@
       <c r="AO34" s="1"/>
       <c r="AP34" s="1"/>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -22123,7 +22123,7 @@
       <c r="AO35" s="1"/>
       <c r="AP35" s="1"/>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -22167,7 +22167,7 @@
       <c r="AO36" s="1"/>
       <c r="AP36" s="1"/>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -22211,7 +22211,7 @@
       <c r="AO37" s="1"/>
       <c r="AP37" s="1"/>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -22255,7 +22255,7 @@
       <c r="AO38" s="1"/>
       <c r="AP38" s="1"/>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -22299,7 +22299,7 @@
       <c r="AO39" s="1"/>
       <c r="AP39" s="1"/>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -22343,7 +22343,7 @@
       <c r="AO40" s="1"/>
       <c r="AP40" s="1"/>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -22387,7 +22387,7 @@
       <c r="AO41" s="1"/>
       <c r="AP41" s="1"/>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -22431,7 +22431,7 @@
       <c r="AO42" s="1"/>
       <c r="AP42" s="1"/>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -22475,7 +22475,7 @@
       <c r="AO43" s="1"/>
       <c r="AP43" s="1"/>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -22519,7 +22519,7 @@
       <c r="AO44" s="1"/>
       <c r="AP44" s="1"/>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -22563,7 +22563,7 @@
       <c r="AO45" s="1"/>
       <c r="AP45" s="1"/>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -22622,14 +22622,14 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -22650,7 +22650,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:19" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" ht="20" x14ac:dyDescent="0.6">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="6" t="s">
@@ -22673,7 +22673,7 @@
       <c r="R3" s="2"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -22694,7 +22694,7 @@
       <c r="R4" s="2"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -22715,7 +22715,7 @@
       <c r="R5" s="2"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" ht="20" x14ac:dyDescent="0.6">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -22738,7 +22738,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -22759,7 +22759,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" ht="20" x14ac:dyDescent="0.6">
       <c r="A8" s="2"/>
       <c r="B8" s="6" t="s">
         <v>2</v>
@@ -22782,7 +22782,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -22803,7 +22803,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -22824,7 +22824,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -22845,7 +22845,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -22866,7 +22866,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -22887,7 +22887,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -22908,7 +22908,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -22929,7 +22929,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -22950,7 +22950,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -22971,7 +22971,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -22992,7 +22992,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -23013,7 +23013,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -23034,7 +23034,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -23055,7 +23055,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -23076,7 +23076,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -23097,7 +23097,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -23118,7 +23118,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -23139,7 +23139,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -23160,7 +23160,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -23181,7 +23181,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -23202,7 +23202,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -23222,7 +23222,7 @@
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -23258,9 +23258,9 @@
       <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
@@ -23276,7 +23276,7 @@
       <c r="N1" s="46"/>
       <c r="O1" s="46"/>
     </row>
-    <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4"/>
       <c r="G2" s="46"/>
       <c r="H2" s="46"/>
@@ -23288,7 +23288,7 @@
       <c r="N2" s="46"/>
       <c r="O2" s="46"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -23309,7 +23309,7 @@
       <c r="R3" s="2"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:19" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" ht="20" x14ac:dyDescent="0.6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="6" t="s">
@@ -23332,7 +23332,7 @@
       <c r="R4" s="2"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -23353,7 +23353,7 @@
       <c r="R5" s="2"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -23374,7 +23374,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" ht="20" x14ac:dyDescent="0.6">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -23397,7 +23397,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -23418,7 +23418,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" ht="20" x14ac:dyDescent="0.6">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="s">
         <v>2</v>
@@ -23441,7 +23441,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -23462,7 +23462,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -23483,7 +23483,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -23504,7 +23504,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -23525,7 +23525,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -23546,7 +23546,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -23567,7 +23567,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -23588,7 +23588,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -23609,7 +23609,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -23630,7 +23630,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -23651,7 +23651,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -23672,7 +23672,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -23693,7 +23693,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -23714,7 +23714,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -23735,7 +23735,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -23756,7 +23756,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="3"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -23777,7 +23777,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="3"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -23798,7 +23798,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -23819,7 +23819,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -23840,7 +23840,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -23861,7 +23861,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="3"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -23882,7 +23882,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -23903,7 +23903,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -23924,7 +23924,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -23945,7 +23945,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -23966,7 +23966,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -23987,7 +23987,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -24008,7 +24008,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -24029,7 +24029,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -24050,7 +24050,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -24071,7 +24071,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -24107,13 +24107,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
@@ -24129,7 +24129,7 @@
       <c r="N1" s="46"/>
       <c r="O1" s="46"/>
     </row>
-    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4"/>
       <c r="G2" s="46"/>
       <c r="H2" s="46"/>
@@ -24141,7 +24141,7 @@
       <c r="N2" s="46"/>
       <c r="O2" s="46"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -24166,7 +24166,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" ht="20" x14ac:dyDescent="0.6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="6" t="s">
@@ -24191,7 +24191,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -24214,7 +24214,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -24237,7 +24237,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" ht="20" x14ac:dyDescent="0.6">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -24262,7 +24262,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -24287,7 +24287,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" ht="20" x14ac:dyDescent="0.6">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="s">
         <v>2</v>
@@ -24312,7 +24312,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -24335,7 +24335,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -24358,7 +24358,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -24381,7 +24381,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -24404,7 +24404,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -24427,7 +24427,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -24450,7 +24450,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -24473,7 +24473,7 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -24496,7 +24496,7 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -24519,7 +24519,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -24542,7 +24542,7 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -24565,7 +24565,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -24588,7 +24588,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -24611,7 +24611,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -24634,7 +24634,7 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -24657,7 +24657,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -24680,7 +24680,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -24703,7 +24703,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -24726,7 +24726,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -24749,7 +24749,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -24772,7 +24772,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -24795,7 +24795,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -24818,7 +24818,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -24841,7 +24841,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -24864,7 +24864,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -24887,7 +24887,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -24934,27 +24934,27 @@
       <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="3.75" style="8" customWidth="1"/>
     <col min="2" max="2" width="32.75" style="8" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="20.875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="25.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" style="8" customWidth="1"/>
     <col min="6" max="6" width="11" style="8" customWidth="1"/>
     <col min="7" max="7" width="67" style="8" customWidth="1"/>
     <col min="8" max="8" width="15" style="8" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="8" customWidth="1"/>
-    <col min="10" max="11" width="15.875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="8" customWidth="1"/>
+    <col min="10" max="11" width="15.83203125" style="8" customWidth="1"/>
     <col min="12" max="13" width="10.75" style="8" customWidth="1"/>
-    <col min="14" max="14" width="16.125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="16.08203125" style="8" customWidth="1"/>
     <col min="15" max="15" width="13.25" style="8" customWidth="1"/>
     <col min="16" max="16" width="10.75" style="8" customWidth="1"/>
-    <col min="17" max="17" width="17.875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="17.83203125" style="8" customWidth="1"/>
     <col min="18" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="12.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:48" ht="12.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -25004,7 +25004,7 @@
       <c r="AU1" s="7"/>
       <c r="AV1" s="7"/>
     </row>
-    <row r="2" spans="1:48" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
       <c r="B2" s="10" t="s">
         <v>41</v>
@@ -25056,7 +25056,7 @@
       <c r="AU2" s="9"/>
       <c r="AV2" s="9"/>
     </row>
-    <row r="3" spans="1:48" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="12"/>
       <c r="C3" s="7"/>
@@ -25106,7 +25106,7 @@
       <c r="AU3" s="7"/>
       <c r="AV3" s="7"/>
     </row>
-    <row r="4" spans="1:48" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:48" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="9"/>
       <c r="B4" s="14" t="s">
         <v>8</v>
@@ -25145,7 +25145,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
     </row>
-    <row r="5" spans="1:48" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:48" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="9"/>
       <c r="B5" s="47" t="s">
         <v>9</v>
@@ -25158,7 +25158,7 @@
       <c r="H5" s="48"/>
       <c r="I5" s="49"/>
     </row>
-    <row r="6" spans="1:48" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:48" ht="21.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="9"/>
       <c r="B6" s="16" t="s">
         <v>42</v>
@@ -25203,7 +25203,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:48" ht="22.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:48" ht="22.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="9"/>
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
@@ -25232,7 +25232,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:48" ht="22.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:48" ht="22.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="9"/>
       <c r="B8" s="30"/>
       <c r="C8" s="31"/>
@@ -25261,7 +25261,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:48" ht="22.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:48" ht="22.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9"/>
       <c r="B9" s="36"/>
       <c r="C9" s="37"/>
@@ -25287,7 +25287,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:48" ht="22.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:48" ht="22.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="9"/>
       <c r="B10" s="30"/>
       <c r="C10" s="31"/>
@@ -25310,7 +25310,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:48" ht="22.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:48" ht="22.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9"/>
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
@@ -25330,7 +25330,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:48" ht="22.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:48" ht="22.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9"/>
       <c r="B12" s="30"/>
       <c r="C12" s="31"/>
@@ -25341,7 +25341,7 @@
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
     </row>
-    <row r="13" spans="1:48" ht="22.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:48" ht="22.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="9"/>
       <c r="B13" s="30"/>
       <c r="C13" s="31"/>
@@ -25352,7 +25352,7 @@
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
     </row>
-    <row r="14" spans="1:48" ht="22.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:48" ht="22.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="9"/>
       <c r="B14" s="30"/>
       <c r="C14" s="31"/>
@@ -25363,7 +25363,7 @@
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
     </row>
-    <row r="15" spans="1:48" ht="22.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:48" ht="22.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="9"/>
       <c r="B15" s="30"/>
       <c r="C15" s="21"/>
@@ -25374,7 +25374,7 @@
       <c r="H15" s="34"/>
       <c r="I15" s="34"/>
     </row>
-    <row r="16" spans="1:48" ht="22.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:48" ht="22.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="9"/>
       <c r="B16" s="30"/>
       <c r="C16" s="31"/>
@@ -25385,7 +25385,7 @@
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
     </row>
-    <row r="17" spans="1:9" ht="22.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" ht="22.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="9"/>
       <c r="B17" s="36"/>
       <c r="C17" s="37"/>
@@ -25396,7 +25396,7 @@
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
     </row>
-    <row r="18" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="21.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="9"/>
       <c r="B18" s="30"/>
       <c r="C18" s="31"/>
@@ -25407,7 +25407,7 @@
       <c r="H18" s="27"/>
       <c r="I18" s="42"/>
     </row>
-    <row r="19" spans="1:9" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" ht="20.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A19" s="9"/>
       <c r="B19" s="30"/>
       <c r="C19" s="31"/>
@@ -25418,358 +25418,358 @@
       <c r="H19" s="27"/>
       <c r="I19" s="42"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="9"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="9"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="9"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="9"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="9"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="9"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="9"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="9"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="9"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="9"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="9"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="9"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="9"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="9"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="9"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="9"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="9"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="9"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="9"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="9"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="9"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="9"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="9"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="9"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="9"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="9"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="9"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="9"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="9"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="9"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="9"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="9"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="9"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="9"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="9"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="9"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="9"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="9"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="9"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="9"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="9"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="9"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="9"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="9"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="9"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="9"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="9"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="9"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="9"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="9"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="9"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="9"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="9"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="9"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="9"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="9"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="9"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="9"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="9"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="9"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="9"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="9"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="9"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="9"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="9"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="9"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="9"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="9"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="9"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="9"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="9"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="9"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="9"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="9"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="9"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="9"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="9"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="9"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="9"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="9"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="9"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="9"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="9"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="9"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="9"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="9"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="9"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="9"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="9"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="9"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="9"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="9"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="9"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="9"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="9"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="9"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="9"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="9"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="9"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="9"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="9"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="9"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="9"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="9"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="9"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="9"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="9"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="9"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="9"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="9"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="9"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="9"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="9"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="9"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="9"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="9"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="9"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="9"/>
     </row>
   </sheetData>
@@ -26028,11 +26028,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
